--- a/hypergrid.xlsx
+++ b/hypergrid.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7035"/>
@@ -72,11 +72,11 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.8342898ad70741c28cd2dfc5c9971fb6">
+    <main first="rtdsrv.c62fb4ef81cd458ca58e5d134ffa91d8">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>hypergrid-demo</stp>
+        <stp>OpenfinPOC</stp>
         <stp>onSelect</stp>
         <stp/>
         <tr r="A1" s="2"/>
@@ -341,7 +341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,15 +366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.FinDesktopSync("hypergrid-demo", "onSelect", "")</f>
+        <f>_xll.FinDesktopSync("OpenfinPOC","onSelect","")</f>
         <v/>
       </c>
     </row>
